--- a/original/it/audio_list.xlsx
+++ b/original/it/audio_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">è la</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">una</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e mezzanotte</t>
   </si>
 </sst>
 </file>
@@ -114,8 +117,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,326 +253,334 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
         <v>59</v>
       </c>
     </row>

--- a/original/it/audio_list.xlsx
+++ b/original/it/audio_list.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="0"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0" showHorizontalScroll="1" showVerticalScroll="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">è la</t>
   </si>
@@ -28,51 +25,54 @@
     <t xml:space="preserve">sono le</t>
   </si>
   <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">una</t>
+    <t>e</t>
+  </si>
+  <si>
+    <t>una</t>
   </si>
   <si>
     <t xml:space="preserve">e mezzanotte</t>
+  </si>
+  <si>
+    <t>batteria</t>
+  </si>
+  <si>
+    <t>piena</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>bassa</t>
+  </si>
+  <si>
+    <t>critica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in carica</t>
+  </si>
+  <si>
+    <t>voce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,118 +84,393 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyProtection="0">
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -245,350 +520,386 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr filterMode="0">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" topLeftCell="A46" zoomScale="100" workbookViewId="0">
+      <selection activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+    <col customWidth="0" min="1" max="1" style="1" width="11.529999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="14.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="14.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" ht="14.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" ht="14.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="14.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" ht="14.25">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" ht="14.25">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" ht="14.25">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" ht="14.25">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" ht="14.25">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" ht="14.25">
+      <c r="A11" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" ht="14.25">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" ht="14.25">
+      <c r="A13" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" ht="14.25">
+      <c r="A14" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" ht="14.25">
+      <c r="A15" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" ht="14.25">
+      <c r="A16" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" ht="14.25">
+      <c r="A17" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" ht="14.25">
+      <c r="A18" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" ht="14.25">
+      <c r="A19" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" ht="14.25">
+      <c r="A20" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" ht="14.25">
+      <c r="A21" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" ht="14.25">
+      <c r="A22" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" ht="14.25">
+      <c r="A23" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" ht="14.25">
+      <c r="A24" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" ht="14.25">
+      <c r="A25" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" ht="14.25">
+      <c r="A26" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" ht="14.25">
+      <c r="A27" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" ht="14.25">
+      <c r="A28" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" ht="14.25">
+      <c r="A29" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" ht="14.25">
+      <c r="A30" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" ht="14.25">
+      <c r="A31" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" ht="14.25">
+      <c r="A32" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" ht="14.25">
+      <c r="A33" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" ht="14.25">
+      <c r="A34" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" ht="14.25">
+      <c r="A35" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" ht="14.25">
+      <c r="A36" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" ht="14.25">
+      <c r="A37" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" ht="14.25">
+      <c r="A38" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" ht="14.25">
+      <c r="A39" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" ht="14.25">
+      <c r="A40" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" ht="14.25">
+      <c r="A41" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" ht="14.25">
+      <c r="A42" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" ht="14.25">
+      <c r="A43" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" ht="14.25">
+      <c r="A44" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" ht="14.25">
+      <c r="A45" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" ht="14.25">
+      <c r="A46" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" ht="14.25">
+      <c r="A47" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" ht="14.25">
+      <c r="A48" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" ht="14.25">
+      <c r="A49" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" ht="14.25">
+      <c r="A50" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" ht="14.25">
+      <c r="A51" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" ht="14.25">
+      <c r="A52" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" ht="14.25">
+      <c r="A53" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" ht="14.25">
+      <c r="A54" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" ht="14.25">
+      <c r="A55" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" ht="14.25">
+      <c r="A56" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" ht="14.25">
+      <c r="A57" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" ht="14.25">
+      <c r="A58" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" ht="14.25">
+      <c r="A59" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" ht="14.25">
+      <c r="A60" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" ht="14.25">
+      <c r="A61" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" ht="14.25">
+      <c r="A62" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" ht="14.25">
+      <c r="A63" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" ht="14.25">
+      <c r="A64" s="2">
         <v>59</v>
       </c>
     </row>
+    <row r="65" ht="12.75">
+      <c r="A65" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" ht="12.75">
+      <c r="A66" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" ht="12.75">
+      <c r="A67" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" ht="12.75">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" ht="12.75">
+      <c r="A69" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" ht="12.75">
+      <c r="A70" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" ht="12.75">
+      <c r="A71" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions headings="0" gridLines="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.05277777777778" bottom="1.05277777777778" header="0.78750000000000009" footer="0.78750000000000009"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
